--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2963626.622927094</v>
+        <v>2958999.650195583</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717233</v>
+        <v>430763.7823717228</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8737392.499441143</v>
+        <v>8737392.499441141</v>
       </c>
     </row>
     <row r="11">
@@ -661,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.744199911425529</v>
+        <v>109.0498329482418</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>131.3559228367316</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>47.16576129466948</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.41402108404402</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.2420339516666</v>
+        <v>68.49865928347451</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G5" t="n">
         <v>15.21022140383137</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>10.67483644959631</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>125.6384340685022</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>131.8782399426176</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.41402108404402</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>276.8040167556974</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>399.0721465063743</v>
       </c>
       <c r="G8" t="n">
-        <v>399.0721465063751</v>
+        <v>102.9227117895461</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>114.3055064074256</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1217,19 +1217,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3098884080723</v>
+        <v>8.43610621258809</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9437542142032</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9214532265578</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.7875276767141</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.96926597224</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>75.4044366358475</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>81.63338444237048</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>137.1751068685197</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>81.3725990111929</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>191.9754729051938</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127574</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.16198843063519</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>67.89710800491262</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>156.7148338285351</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>201.7310503651051</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>175.8849559820536</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>64.44601915223832</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>64.44601915223838</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>165.7497191894484</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>86.27179222793497</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>165.7497191894491</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>84.56702400647403</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>10.45067165712847</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60.91221720126825</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>84.56702400647403</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>12.9985540270648</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3480,16 +3480,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9396509466204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>4.28063672639034</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>36.06768332842788</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>93.54160516454149</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>121.9725644689323</v>
       </c>
       <c r="I43" t="n">
         <v>81.80457674440903</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.67631144435357</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4194,16 +4194,16 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9534977375317</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.0670914110435</v>
+        <v>682.515142825486</v>
       </c>
       <c r="C2" t="n">
-        <v>521.1660470154206</v>
+        <v>416.6140984298628</v>
       </c>
       <c r="D2" t="n">
-        <v>521.1660470154206</v>
+        <v>150.7130540342397</v>
       </c>
       <c r="E2" t="n">
-        <v>521.1660470154206</v>
+        <v>150.7130540342397</v>
       </c>
       <c r="F2" t="n">
-        <v>511.3234208422635</v>
+        <v>40.56170762187421</v>
       </c>
       <c r="G2" t="n">
-        <v>495.9595608383935</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H2" t="n">
-        <v>230.0585164427707</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>682.515142825486</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>682.515142825486</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>682.515142825486</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806666</v>
+        <v>682.515142825486</v>
       </c>
       <c r="X2" t="n">
-        <v>787.0670914110435</v>
+        <v>682.515142825486</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.0670914110435</v>
+        <v>682.515142825486</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>381.8354000521746</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C3" t="n">
-        <v>207.3823707710476</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D3" t="n">
-        <v>207.3823707710476</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E3" t="n">
-        <v>207.3823707710476</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F3" t="n">
-        <v>159.7401876451189</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683209</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399122</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>265.5537082516947</v>
       </c>
       <c r="M3" t="n">
-        <v>398.8245784347747</v>
+        <v>526.1633218638449</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360758</v>
+        <v>786.7729354759952</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285679</v>
+        <v>1047.185999568487</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>1047.185999568487</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>850.9830782217434</v>
       </c>
       <c r="U3" t="n">
-        <v>824.7478070488712</v>
+        <v>850.9830782217434</v>
       </c>
       <c r="V3" t="n">
-        <v>589.5956988171286</v>
+        <v>615.8309699900008</v>
       </c>
       <c r="W3" t="n">
-        <v>589.5956988171286</v>
+        <v>361.5936132617991</v>
       </c>
       <c r="X3" t="n">
-        <v>589.5956988171286</v>
+        <v>153.7421130562663</v>
       </c>
       <c r="Y3" t="n">
-        <v>381.8354000521746</v>
+        <v>153.7421130562663</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.4074064933379</v>
+        <v>641.5543613459231</v>
       </c>
       <c r="C5" t="n">
-        <v>522.4074064933379</v>
+        <v>641.5543613459231</v>
       </c>
       <c r="D5" t="n">
-        <v>256.5063620977151</v>
+        <v>572.3637964131206</v>
       </c>
       <c r="E5" t="n">
-        <v>256.5063620977151</v>
+        <v>306.4627520174973</v>
       </c>
       <c r="F5" t="n">
-        <v>249.5608613485117</v>
+        <v>40.56170762187421</v>
       </c>
       <c r="G5" t="n">
-        <v>234.1970013446416</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H5" t="n">
-        <v>234.1970013446416</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800421</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L5" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369333</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885147</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="U5" t="n">
-        <v>799.0911139693611</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="V5" t="n">
-        <v>788.3084508889608</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="W5" t="n">
-        <v>788.3084508889608</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="X5" t="n">
-        <v>788.3084508889608</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.4074064933379</v>
+        <v>907.4554057415462</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267.1559422311875</v>
+        <v>147.9668718762366</v>
       </c>
       <c r="C6" t="n">
-        <v>267.1559422311875</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D6" t="n">
-        <v>267.1559422311875</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2210505399122</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L6" t="n">
-        <v>398.8245784347747</v>
+        <v>394.9337607940762</v>
       </c>
       <c r="M6" t="n">
-        <v>524.9036321565281</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="N6" t="n">
-        <v>524.9036321565281</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="O6" t="n">
-        <v>785.3166962490202</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271187</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>850.9830782217423</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U6" t="n">
-        <v>850.9830782217423</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V6" t="n">
-        <v>850.9830782217423</v>
+        <v>817.8160275749249</v>
       </c>
       <c r="W6" t="n">
-        <v>850.9830782217423</v>
+        <v>563.5786708467233</v>
       </c>
       <c r="X6" t="n">
-        <v>643.1315780162095</v>
+        <v>355.7271706411905</v>
       </c>
       <c r="Y6" t="n">
-        <v>435.3712792512555</v>
+        <v>147.9668718762366</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613333</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360295</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1107.362720282172</v>
+        <v>538.9912851507327</v>
       </c>
       <c r="C8" t="n">
-        <v>1107.362720282172</v>
+        <v>538.9912851507327</v>
       </c>
       <c r="D8" t="n">
-        <v>827.7627033572255</v>
+        <v>538.9912851507327</v>
       </c>
       <c r="E8" t="n">
-        <v>441.9744507589812</v>
+        <v>538.9912851507327</v>
       </c>
       <c r="F8" t="n">
-        <v>435.0289500097778</v>
+        <v>135.8881068614656</v>
       </c>
       <c r="G8" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="H8" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="J8" t="n">
-        <v>67.66699237151761</v>
+        <v>67.66699237151721</v>
       </c>
       <c r="K8" t="n">
-        <v>241.9786214193931</v>
+        <v>241.9786214193923</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5042384841158</v>
+        <v>510.5042384841147</v>
       </c>
       <c r="M8" t="n">
-        <v>825.8972722888593</v>
+        <v>825.8972722888577</v>
       </c>
       <c r="N8" t="n">
-        <v>1131.761697568016</v>
+        <v>1131.761697568014</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.393163234509</v>
+        <v>1375.393163234506</v>
       </c>
       <c r="P8" t="n">
-        <v>1545.652599660157</v>
+        <v>1545.652599660154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1596.2885860255</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="R8" t="n">
-        <v>1480.828478543252</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="S8" t="n">
-        <v>1480.828478543252</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="T8" t="n">
-        <v>1480.828478543252</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="U8" t="n">
-        <v>1480.828478543252</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="V8" t="n">
-        <v>1480.828478543252</v>
+        <v>1265.225698681927</v>
       </c>
       <c r="W8" t="n">
-        <v>1480.828478543252</v>
+        <v>912.4570434118125</v>
       </c>
       <c r="X8" t="n">
-        <v>1107.362720282172</v>
+        <v>538.9912851507327</v>
       </c>
       <c r="Y8" t="n">
-        <v>1107.362720282172</v>
+        <v>538.9912851507327</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>622.5648426752301</v>
+        <v>523.0719850749983</v>
       </c>
       <c r="C9" t="n">
-        <v>448.1118133941031</v>
+        <v>348.6189557938714</v>
       </c>
       <c r="D9" t="n">
-        <v>448.1118133941031</v>
+        <v>199.6845461326201</v>
       </c>
       <c r="E9" t="n">
-        <v>288.8743583886476</v>
+        <v>40.44709112716458</v>
       </c>
       <c r="F9" t="n">
-        <v>142.3398004155325</v>
+        <v>40.44709112716458</v>
       </c>
       <c r="G9" t="n">
-        <v>142.3398004155325</v>
+        <v>40.44709112716458</v>
       </c>
       <c r="H9" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="I9" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="J9" t="n">
-        <v>59.51961820537322</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="K9" t="n">
-        <v>233.3027400460181</v>
+        <v>205.7088935611546</v>
       </c>
       <c r="L9" t="n">
-        <v>378.3458270075144</v>
+        <v>500.786143331991</v>
       </c>
       <c r="M9" t="n">
-        <v>773.4272520488257</v>
+        <v>895.8675683733015</v>
       </c>
       <c r="N9" t="n">
-        <v>1168.508677090137</v>
+        <v>928.5994768785313</v>
       </c>
       <c r="O9" t="n">
-        <v>1488.613408501202</v>
+        <v>1248.704208289596</v>
       </c>
       <c r="P9" t="n">
-        <v>1488.613408501202</v>
+        <v>1488.6134085012</v>
       </c>
       <c r="Q9" t="n">
-        <v>1596.2885860255</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="R9" t="n">
-        <v>1596.2885860255</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="S9" t="n">
-        <v>1596.2885860255</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="T9" t="n">
-        <v>1395.335298940447</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="U9" t="n">
-        <v>1167.131810832813</v>
+        <v>1596.288586025497</v>
       </c>
       <c r="V9" t="n">
-        <v>931.9797026010699</v>
+        <v>1361.136477793755</v>
       </c>
       <c r="W9" t="n">
-        <v>790.7801796952981</v>
+        <v>1106.899121065553</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7801796952981</v>
+        <v>899.0476208600203</v>
       </c>
       <c r="Y9" t="n">
-        <v>790.7801796952981</v>
+        <v>691.2873220950664</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="C10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="D10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="E10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="F10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="G10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="H10" t="n">
-        <v>108.0918693324772</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="I10" t="n">
-        <v>108.0918693324772</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="J10" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050995</v>
       </c>
       <c r="K10" t="n">
-        <v>39.08908224095562</v>
+        <v>39.08908224095541</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7820880685943</v>
+        <v>103.782088068594</v>
       </c>
       <c r="M10" t="n">
-        <v>182.3809151796119</v>
+        <v>182.3809151796113</v>
       </c>
       <c r="N10" t="n">
-        <v>264.5454542807991</v>
+        <v>264.5454542807984</v>
       </c>
       <c r="O10" t="n">
-        <v>324.4214093422733</v>
+        <v>324.4214093422723</v>
       </c>
       <c r="P10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="Q10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="R10" t="n">
-        <v>269.676986476154</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="S10" t="n">
-        <v>269.676986476154</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="T10" t="n">
-        <v>269.676986476154</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="U10" t="n">
-        <v>269.676986476154</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="V10" t="n">
-        <v>269.676986476154</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="W10" t="n">
-        <v>269.676986476154</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="X10" t="n">
-        <v>269.676986476154</v>
+        <v>352.1349505593554</v>
       </c>
       <c r="Y10" t="n">
-        <v>269.676986476154</v>
+        <v>213.5742365507496</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
         <v>380.275713812763</v>
@@ -5041,13 +5041,13 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M11" t="n">
         <v>2234.298471234015</v>
@@ -5074,19 +5074,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1063.776437885085</v>
+        <v>1118.952438077079</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.872401284422</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O12" t="n">
-        <v>2232.748876284616</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>555.8655840573317</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8655840573317</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8655840573317</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9524904749386</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G13" t="n">
         <v>93.84834815160704</v>
@@ -5235,16 +5235,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1475.71334896608</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1186.296178929119</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>958.3066280311016</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.5140488875714</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160704</v>
@@ -5278,22 +5278,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
         <v>4202.751434297607</v>
@@ -5317,7 +5317,7 @@
         <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
         <v>3095.000365871304</v>
@@ -5357,28 +5357,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>337.9118393841223</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>929.9301936362499</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>1552.026157035586</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O15" t="n">
-        <v>2098.90263203578</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.028458899664</v>
+        <v>654.5023284669179</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0922759717571</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D16" t="n">
-        <v>408.9756365594213</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160704</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2373.69331910273</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2190.52312884166</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1970.844346556042</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1681.768132870769</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1427.083644664882</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1137.666474627921</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>909.6769237299037</v>
+        <v>1056.943372440688</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6769237299037</v>
+        <v>836.1507932971576</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
         <v>380.275713812763</v>
@@ -5518,19 +5518,19 @@
         <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P17" t="n">
         <v>4202.751434297607</v>
@@ -5548,19 +5548,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>572.0050724668117</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1154.278642310989</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1776.374605710325</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.9649929333267</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C19" t="n">
-        <v>700.9649929333267</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D19" t="n">
-        <v>550.8483535209909</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="G19" t="n">
         <v>235.7210651131766</v>
@@ -5697,28 +5697,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>921.7575720768568</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y19" t="n">
-        <v>700.9649929333267</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C20" t="n">
         <v>1949.298676890959</v>
@@ -5740,19 +5740,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
         <v>842.9746074384018</v>
@@ -5761,25 +5761,25 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5788,7 +5788,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W20" t="n">
         <v>3468.466124132384</v>
@@ -5797,7 +5797,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>584.5806809953583</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>734.6951238849133</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2981.766298609072</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>2812.830115681165</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>2812.830115681165</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E22" t="n">
-        <v>2812.830115681165</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F22" t="n">
-        <v>2665.940168183255</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>2498.725973357834</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H22" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>4441.387872277784</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>4152.311658592511</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.627170386624</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>3608.210000349663</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>3380.220449451646</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>3159.427870308116</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -6025,16 +6025,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>242.5353624779755</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>733.2676953217267</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>733.2676953217267</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N24" t="n">
-        <v>1355.363658721063</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O24" t="n">
-        <v>1902.240133721257</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.823652147333</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.384926132579</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>930.4858260316502</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>780.3691866193144</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E25" t="n">
-        <v>632.4560930369213</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F25" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6180,19 +6180,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1958.704181747508</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1958.704181747508</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1669.287011710547</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6226,16 +6226,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
         <v>2971.58344915112</v>
@@ -6308,22 +6308,22 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K27" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>732.2286627472042</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1324.247016999332</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N27" t="n">
-        <v>1946.342980398668</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3362.426917204214</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>3193.490734276307</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D28" t="n">
-        <v>3043.374094863972</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E28" t="n">
-        <v>2895.461001281578</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F28" t="n">
-        <v>2748.571053783668</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>2581.356858958247</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.709089992166</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>4054.285131214945</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>4054.285131214945</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>3764.867961177984</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>3764.867961177984</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>3544.075382034454</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6539,25 +6539,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>94.88738072612961</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
-        <v>373.2380436180325</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2380436180325</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>965.2563978701601</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.352361269496</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O30" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>942.7640481312354</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>773.8278652033285</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>623.7112257909928</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E31" t="n">
-        <v>475.7981322085997</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F31" t="n">
-        <v>328.9081847106893</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6651,22 +6651,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2178.382964033126</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1889.306750347853</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1634.622262141966</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1345.205092105005</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1345.205092105005</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>1124.412512961475</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
         <v>1591.032978284208</v>
@@ -6688,13 +6688,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
@@ -6703,31 +6703,31 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C33" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D33" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E33" t="n">
-        <v>2599.64100036616</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F33" t="n">
-        <v>2453.106442393045</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>2237.478496095702</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>2567.98723865906</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>3058.719571502812</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>3650.737925754939</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N33" t="n">
-        <v>4272.833889154275</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O33" t="n">
-        <v>4272.833889154275</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S33" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U33" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V33" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W33" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y33" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9011758612336</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>700.9649929333267</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>550.8483535209909</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385978</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160703</v>
@@ -6894,16 +6894,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1669.627968062235</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1380.210798025274</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>1152.221247127257</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>931.4286679837268</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
         <v>4202.751434297606</v>
@@ -7013,28 +7013,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1063.776437885085</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.872401284422</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O36" t="n">
-        <v>2232.748876284616</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.791123359144</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C37" t="n">
-        <v>847.854940431237</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="D37" t="n">
-        <v>697.7383010189012</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="E37" t="n">
         <v>549.8252074365081</v>
@@ -7119,28 +7119,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>1958.704181747508</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1704.019693541621</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1419.232167332914</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.232167332914</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.439588189384</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7162,37 +7162,37 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
         <v>4566.333620403613</v>
@@ -7213,13 +7213,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1246.245394651197</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N39" t="n">
-        <v>1868.341358050533</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>930.4858260316502</v>
+        <v>723.0852658456174</v>
       </c>
       <c r="C40" t="n">
-        <v>930.4858260316502</v>
+        <v>554.1490829177105</v>
       </c>
       <c r="D40" t="n">
-        <v>780.3691866193144</v>
+        <v>554.1490829177105</v>
       </c>
       <c r="E40" t="n">
-        <v>632.4560930369213</v>
+        <v>554.1490829177105</v>
       </c>
       <c r="F40" t="n">
-        <v>485.566145539011</v>
+        <v>407.2591354198001</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>240.044940594379</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>98.17222363280939</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7356,28 +7356,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2392.980495973646</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2392.980495973646</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2173.301713688028</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1884.225500002755</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.541011796868</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1340.123841759907</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>1112.13429086189</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1112.13429086189</v>
+        <v>904.7337306758571</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7399,7 +7399,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
@@ -7411,10 +7411,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L41" t="n">
         <v>1513.293909294976</v>
@@ -7444,19 +7444,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>242.5353624779755</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>733.2676953217267</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1325.286049573854</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N42" t="n">
-        <v>1947.38201297319</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O42" t="n">
-        <v>2494.258487973384</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890988</v>
+        <v>744.6035248193385</v>
       </c>
       <c r="C43" t="n">
-        <v>562.9550599890988</v>
+        <v>744.6035248193385</v>
       </c>
       <c r="D43" t="n">
-        <v>412.838420576763</v>
+        <v>594.4868854070028</v>
       </c>
       <c r="E43" t="n">
-        <v>412.838420576763</v>
+        <v>446.5737918246097</v>
       </c>
       <c r="F43" t="n">
-        <v>412.838420576763</v>
+        <v>299.6838443266993</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>299.6838443266993</v>
       </c>
       <c r="H43" t="n">
         <v>176.4792337520202</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
         <v>1591.032978284208</v>
@@ -7636,64 +7636,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>573.0441050413342</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L45" t="n">
-        <v>1063.776437885085</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.794792137213</v>
+        <v>833.5146841555805</v>
       </c>
       <c r="N45" t="n">
-        <v>1971.609675461662</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>2518.486150461856</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
         <v>2518.486150461856</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.271631206229</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C46" t="n">
-        <v>763.271631206229</v>
+        <v>847.8549404312371</v>
       </c>
       <c r="D46" t="n">
-        <v>613.1549917938933</v>
+        <v>697.7383010189013</v>
       </c>
       <c r="E46" t="n">
-        <v>465.2418982115001</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="F46" t="n">
-        <v>318.3519507135898</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G46" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H46" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
         <v>172.8304710411609</v>
@@ -7833,25 +7833,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1852.798158323305</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1598.113670117418</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W46" t="n">
-        <v>1308.696500080457</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X46" t="n">
-        <v>1080.70694918244</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="Y46" t="n">
-        <v>859.9143700389094</v>
+        <v>1198.439588189384</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N3" t="n">
-        <v>322.2342477951062</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368072</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>139.5036224415385</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>256.9443198746409</v>
+        <v>260.8744387036297</v>
       </c>
       <c r="N6" t="n">
-        <v>118.4674613291454</v>
+        <v>118.4674613291452</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>98.21846313347643</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>219.290685900085</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>464.453519116829</v>
+        <v>464.4535191168286</v>
       </c>
       <c r="N9" t="n">
-        <v>451.6297827178985</v>
+        <v>85.62017005519017</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13024317367086</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>51.31264782909193</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>51.31264782909216</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>51.31264782909176</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>51.31264782909216</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="N20" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.04844901173834</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>60.16217041863425</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.01876316044837</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>157.8125473841245</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8.827219048631832</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>23.97860502393203</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.947024199883657</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>84.16945386597403</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440903</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>84.16945386597398</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>59.95993619958875</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>62.34368079027739</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>120.4357323589714</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>61.86693864009514</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.0913812200384</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.919762980669</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>61.86693864009514</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440903</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.4354086195044</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>4.583347389970584</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>77.52394001801869</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>31.11306826265569</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.00044771262543</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.48142532302165</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.15566873758372</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>38.63115561456306</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>822744.5699608843</v>
+        <v>822744.5699608844</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733135.2407486255</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733135.2407486255</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733135.2407486257</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733135.2407486257</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733135.2407486257</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486257</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733135.2407486257</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>685680.5305507759</v>
+        <v>685680.5305507757</v>
       </c>
       <c r="F2" t="n">
-        <v>685680.5305507757</v>
+        <v>685680.5305507758</v>
       </c>
       <c r="G2" t="n">
-        <v>685680.5305507757</v>
+        <v>685680.5305507758</v>
       </c>
       <c r="H2" t="n">
+        <v>685680.5305507758</v>
+      </c>
+      <c r="I2" t="n">
         <v>685680.5305507756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>685680.5305507757</v>
       </c>
       <c r="J2" t="n">
         <v>685680.5305507756</v>
       </c>
       <c r="K2" t="n">
+        <v>685680.5305507756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>685680.5305507756</v>
+      </c>
+      <c r="M2" t="n">
         <v>685680.5305507755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>685680.5305507755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>685680.5305507757</v>
       </c>
       <c r="N2" t="n">
         <v>685680.5305507755</v>
       </c>
       <c r="O2" t="n">
-        <v>685680.5305507757</v>
+        <v>685680.5305507756</v>
       </c>
       <c r="P2" t="n">
         <v>685680.5305507758</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143093.1975581086</v>
+        <v>143093.1975581075</v>
       </c>
       <c r="E3" t="n">
-        <v>1209019.537077497</v>
+        <v>1209019.537077498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>68875.69873124991</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34377.37901658372</v>
+        <v>34377.37901658347</v>
       </c>
       <c r="M3" t="n">
-        <v>192891.9217116888</v>
+        <v>192891.921711689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>354753.502998367</v>
       </c>
       <c r="C4" t="n">
-        <v>354753.5029983671</v>
+        <v>354753.502998367</v>
       </c>
       <c r="D4" t="n">
-        <v>312563.8135151854</v>
+        <v>312563.8135151857</v>
       </c>
       <c r="E4" t="n">
-        <v>7918.140297431731</v>
+        <v>7918.140297431728</v>
       </c>
       <c r="F4" t="n">
-        <v>7918.140297431736</v>
+        <v>7918.140297431729</v>
       </c>
       <c r="G4" t="n">
-        <v>7918.140297431736</v>
+        <v>7918.140297431728</v>
       </c>
       <c r="H4" t="n">
-        <v>7918.140297431764</v>
+        <v>7918.140297431732</v>
       </c>
       <c r="I4" t="n">
         <v>7918.140297431711</v>
       </c>
       <c r="J4" t="n">
-        <v>7918.140297431713</v>
+        <v>7918.140297431711</v>
       </c>
       <c r="K4" t="n">
         <v>7918.140297431711</v>
       </c>
       <c r="L4" t="n">
+        <v>7918.140297431712</v>
+      </c>
+      <c r="M4" t="n">
         <v>7918.140297431711</v>
       </c>
-      <c r="M4" t="n">
-        <v>7918.140297431717</v>
-      </c>
       <c r="N4" t="n">
-        <v>7918.140297431709</v>
+        <v>7918.140297431711</v>
       </c>
       <c r="O4" t="n">
-        <v>7918.140297431712</v>
+        <v>7918.140297431711</v>
       </c>
       <c r="P4" t="n">
-        <v>7918.140297431712</v>
+        <v>7918.140297431729</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="D5" t="n">
-        <v>60961.29296005018</v>
+        <v>60961.29296005012</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572386</v>
@@ -26487,7 +26487,7 @@
         <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
@@ -26511,7 +26511,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>182603.1391044908</v>
       </c>
       <c r="C6" t="n">
-        <v>292997.5939794403</v>
+        <v>292997.5939794404</v>
       </c>
       <c r="D6" t="n">
-        <v>181267.2003512962</v>
+        <v>181267.2003512975</v>
       </c>
       <c r="E6" t="n">
-        <v>-632187.1862813913</v>
+        <v>-632546.1561000353</v>
       </c>
       <c r="F6" t="n">
-        <v>576832.3507961055</v>
+        <v>576473.3809774625</v>
       </c>
       <c r="G6" t="n">
-        <v>576832.3507961055</v>
+        <v>576473.3809774625</v>
       </c>
       <c r="H6" t="n">
-        <v>576832.3507961053</v>
+        <v>576473.3809774625</v>
       </c>
       <c r="I6" t="n">
-        <v>576832.3507961055</v>
+        <v>576473.3809774623</v>
       </c>
       <c r="J6" t="n">
-        <v>507956.6520648554</v>
+        <v>507597.6822462123</v>
       </c>
       <c r="K6" t="n">
-        <v>576832.3507961052</v>
+        <v>576473.3809774623</v>
       </c>
       <c r="L6" t="n">
-        <v>542454.9717795216</v>
+        <v>542096.0019608788</v>
       </c>
       <c r="M6" t="n">
-        <v>383940.4290844166</v>
+        <v>383581.4592657731</v>
       </c>
       <c r="N6" t="n">
-        <v>576832.3507961052</v>
+        <v>576473.3809774622</v>
       </c>
       <c r="O6" t="n">
-        <v>576832.3507961055</v>
+        <v>576473.3809774623</v>
       </c>
       <c r="P6" t="n">
-        <v>576832.3507961056</v>
+        <v>576473.3809774625</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8305712138797</v>
+        <v>140.830571213879</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>399.0721465063751</v>
+        <v>399.0721465063743</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8171885270903</v>
+        <v>117.8171885270894</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.210477502506</v>
+        <v>1217.210477502507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8301125547084</v>
+        <v>135.8301125547075</v>
       </c>
       <c r="E4" t="n">
-        <v>774.032205388713</v>
+        <v>774.0322053887137</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516668</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547084</v>
+        <v>135.8301125547075</v>
       </c>
       <c r="M4" t="n">
-        <v>774.032205388713</v>
+        <v>774.0322053887137</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547084</v>
+        <v>135.8301125547075</v>
       </c>
       <c r="M4" t="n">
-        <v>774.032205388713</v>
+        <v>774.0322053887137</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,28 +27381,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>102.030857819341</v>
+        <v>102.0308578193407</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>397.1318458302859</v>
+        <v>297.8262127934696</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921178</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>35.17726081313575</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>97.9034510987144</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.0199415625252</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27557,13 +27557,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.74958424511996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>91.44100766901636</v>
+        <v>286.1843823372084</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205949</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -27672,10 +27672,10 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>317.0774220205386</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>47.07006491981357</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>25.76684051278332</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>132.0199415625252</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.9494798159088</v>
@@ -27794,13 +27794,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839145</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
         <v>175.4274210366964</v>
@@ -27830,7 +27830,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>126.4816966381042</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>77.87902486498558</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>7.803899235337099</v>
       </c>
       <c r="G8" t="n">
-        <v>15.66443795865392</v>
+        <v>311.8138726754829</v>
       </c>
       <c r="H8" t="n">
         <v>333.6766871913686</v>
       </c>
       <c r="I8" t="n">
-        <v>188.6492741061925</v>
+        <v>188.6492741061926</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>114.3055064074258</v>
       </c>
       <c r="S8" t="n">
-        <v>196.1188569569537</v>
+        <v>196.1188569569538</v>
       </c>
       <c r="T8" t="n">
         <v>220.6175145872921</v>
@@ -27912,10 +27912,10 @@
         <v>251.300360663828</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27937,22 +27937,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.0405985760713</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8737821954842</v>
       </c>
       <c r="I9" t="n">
-        <v>78.96719903982115</v>
+        <v>78.96719903982121</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.35030994411784</v>
+        <v>81.35030994411792</v>
       </c>
       <c r="S9" t="n">
         <v>166.056591206755</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.9437542142032</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9214532265578</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>111.9074554842055</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28028,13 +28028,13 @@
         <v>167.737022590696</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>159.96926597224</v>
       </c>
       <c r="I10" t="n">
         <v>147.8133023112663</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>75.40443663584759</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.89662699839856</v>
+        <v>64.89662699839866</v>
       </c>
       <c r="R10" t="n">
-        <v>84.24118717703099</v>
+        <v>165.8745716194015</v>
       </c>
       <c r="S10" t="n">
-        <v>219.5908241842344</v>
+        <v>219.5908241842345</v>
       </c>
       <c r="T10" t="n">
         <v>226.860501420568</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>81.40954648357507</v>
       </c>
     </row>
     <row r="11">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430018</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847948</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L5" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S5" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125436</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430018</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847948</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5661530501060484</v>
+        <v>0.5661530501060458</v>
       </c>
       <c r="H8" t="n">
-        <v>5.79811492439857</v>
+        <v>5.798114924398543</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82661546421345</v>
+        <v>21.82661546421335</v>
       </c>
       <c r="J8" t="n">
-        <v>48.05153243643828</v>
+        <v>48.05153243643804</v>
       </c>
       <c r="K8" t="n">
-        <v>72.01679104742732</v>
+        <v>72.01679104742698</v>
       </c>
       <c r="L8" t="n">
-        <v>89.34319745461032</v>
+        <v>89.34319745460989</v>
       </c>
       <c r="M8" t="n">
-        <v>99.41152175943375</v>
+        <v>99.41152175943327</v>
       </c>
       <c r="N8" t="n">
-        <v>101.0201041130476</v>
+        <v>101.0201041130471</v>
       </c>
       <c r="O8" t="n">
-        <v>95.39041972105555</v>
+        <v>95.39041972105508</v>
       </c>
       <c r="P8" t="n">
-        <v>81.41351629656246</v>
+        <v>81.41351629656207</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.13816018963958</v>
+        <v>61.13816018963929</v>
       </c>
       <c r="R8" t="n">
-        <v>35.5636115337241</v>
+        <v>35.56361153372393</v>
       </c>
       <c r="S8" t="n">
-        <v>12.90121262929159</v>
+        <v>12.90121262929153</v>
       </c>
       <c r="T8" t="n">
-        <v>2.478334976839228</v>
+        <v>2.478334976839216</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04529224400848387</v>
+        <v>0.04529224400848365</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029185871392883</v>
+        <v>0.3029185871392869</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92555582842418</v>
+        <v>2.925555828424166</v>
       </c>
       <c r="I9" t="n">
-        <v>10.42943381159392</v>
+        <v>10.42943381159387</v>
       </c>
       <c r="J9" t="n">
-        <v>28.6191635331904</v>
+        <v>28.61916353319026</v>
       </c>
       <c r="K9" t="n">
-        <v>48.91470887152272</v>
+        <v>48.91470887152248</v>
       </c>
       <c r="L9" t="n">
-        <v>65.77186252776522</v>
+        <v>65.77186252776491</v>
       </c>
       <c r="M9" t="n">
-        <v>76.75266131156441</v>
+        <v>76.75266131156404</v>
       </c>
       <c r="N9" t="n">
-        <v>78.78407587180992</v>
+        <v>78.78407587180953</v>
       </c>
       <c r="O9" t="n">
-        <v>72.07203770414462</v>
+        <v>72.07203770414428</v>
       </c>
       <c r="P9" t="n">
-        <v>57.84416424065937</v>
+        <v>57.84416424065909</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.66729193027127</v>
+        <v>38.66729193027108</v>
       </c>
       <c r="R9" t="n">
-        <v>18.8075242085253</v>
+        <v>18.80752420852521</v>
       </c>
       <c r="S9" t="n">
-        <v>5.62657989708283</v>
+        <v>5.626579897082803</v>
       </c>
       <c r="T9" t="n">
-        <v>1.220974480618447</v>
+        <v>1.220974480618441</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01992885441705845</v>
+        <v>0.01992885441705836</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2539567677627338</v>
+        <v>0.2539567677627326</v>
       </c>
       <c r="H10" t="n">
-        <v>2.25790653519958</v>
+        <v>2.257906535199569</v>
       </c>
       <c r="I10" t="n">
-        <v>7.637172615992033</v>
+        <v>7.637172615991997</v>
       </c>
       <c r="J10" t="n">
-        <v>17.95474348082528</v>
+        <v>17.95474348082519</v>
       </c>
       <c r="K10" t="n">
-        <v>29.50515901825216</v>
+        <v>29.50515901825201</v>
       </c>
       <c r="L10" t="n">
-        <v>37.75644527265226</v>
+        <v>37.75644527265208</v>
       </c>
       <c r="M10" t="n">
-        <v>39.80887769575289</v>
+        <v>39.8088776957527</v>
       </c>
       <c r="N10" t="n">
-        <v>38.86231156136456</v>
+        <v>38.86231156136436</v>
       </c>
       <c r="O10" t="n">
-        <v>35.89563477431806</v>
+        <v>35.89563477431788</v>
       </c>
       <c r="P10" t="n">
-        <v>30.71491671195826</v>
+        <v>30.71491671195811</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.26541625329583</v>
+        <v>21.26541625329573</v>
       </c>
       <c r="R10" t="n">
-        <v>11.41881975776801</v>
+        <v>11.41881975776795</v>
       </c>
       <c r="S10" t="n">
-        <v>4.425773852737823</v>
+        <v>4.425773852737802</v>
       </c>
       <c r="T10" t="n">
-        <v>1.085088007713499</v>
+        <v>1.085088007713493</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01385218733251277</v>
+        <v>0.0138521873325127</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31849,7 +31849,7 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>198.9168953023376</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927637</v>
@@ -31858,13 +31858,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>225.3907755213035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>385.0831588026169</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504301</v>
@@ -32092,16 +32092,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32320,22 +32320,22 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>730.289154976743</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>293.7647843155082</v>
+        <v>467.4901056247184</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927637</v>
@@ -32569,10 +32569,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,19 +32785,19 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>467.4901056247184</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927637</v>
@@ -32806,13 +32806,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>147.121350997486</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.2575834086216</v>
@@ -33028,7 +33028,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745724</v>
@@ -33040,13 +33040,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O27" t="n">
-        <v>523.3114972846987</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,19 +33259,19 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>419.0037247237559</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>467.4901056247184</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927637</v>
@@ -33280,7 +33280,7 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>131.9134802621309</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
         <v>471.6886536848224</v>
@@ -33508,16 +33508,16 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>467.4901056247184</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33745,7 +33745,7 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>467.4901056247184</v>
       </c>
       <c r="N36" t="n">
         <v>759.7214730927637</v>
@@ -33754,10 +33754,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>225.3907755213035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
@@ -33982,22 +33982,22 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>326.4461114635455</v>
+        <v>467.4901056247184</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.2575834086216</v>
@@ -34207,19 +34207,19 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>234.5999298820448</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927637</v>
@@ -34228,10 +34228,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>194.1298283460291</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,31 +34444,31 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>450.346644734292</v>
+        <v>624.2207008659179</v>
       </c>
       <c r="O45" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
         <v>181.3625385436713</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894758</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N3" t="n">
-        <v>203.7667864659608</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5.840541654727605</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082925</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894758</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>134.6170405889698</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M6" t="n">
-        <v>127.3525795169227</v>
+        <v>131.2826983459118</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031299</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903812</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082925</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.10224308182576</v>
+        <v>36.10224308182553</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0723525736115</v>
+        <v>176.0723525736112</v>
       </c>
       <c r="L8" t="n">
-        <v>271.2379970350735</v>
+        <v>271.2379970350731</v>
       </c>
       <c r="M8" t="n">
-        <v>318.5788220249935</v>
+        <v>318.578822024993</v>
       </c>
       <c r="N8" t="n">
-        <v>308.9539649284408</v>
+        <v>308.9539649284403</v>
       </c>
       <c r="O8" t="n">
-        <v>246.0923895621142</v>
+        <v>246.0923895621137</v>
       </c>
       <c r="P8" t="n">
-        <v>171.9792287127756</v>
+        <v>171.9792287127752</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14746097509478</v>
+        <v>51.14746097509448</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.87257220693254</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>175.5385069097423</v>
+        <v>175.5385069097421</v>
       </c>
       <c r="L9" t="n">
-        <v>146.508168647976</v>
+        <v>298.0578280513499</v>
       </c>
       <c r="M9" t="n">
-        <v>399.0721465063751</v>
+        <v>399.0721465063743</v>
       </c>
       <c r="N9" t="n">
-        <v>399.0721465063751</v>
+        <v>33.0625338436664</v>
       </c>
       <c r="O9" t="n">
-        <v>323.3381125364297</v>
+        <v>323.3381125364294</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>242.332525466266</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.7628055800988</v>
+        <v>108.7628055800987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.235667192369306</v>
+        <v>7.23566719236916</v>
       </c>
       <c r="L10" t="n">
-        <v>65.3464705329684</v>
+        <v>65.34647053296823</v>
       </c>
       <c r="M10" t="n">
-        <v>79.39275465759349</v>
+        <v>79.39275465759329</v>
       </c>
       <c r="N10" t="n">
-        <v>82.99448394059314</v>
+        <v>82.99448394059296</v>
       </c>
       <c r="O10" t="n">
-        <v>60.48076268835774</v>
+        <v>60.48076268835756</v>
       </c>
       <c r="P10" t="n">
-        <v>27.99347597685175</v>
+        <v>27.9934759768516</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380625</v>
@@ -35418,7 +35418,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>779.60008413115</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35497,7 +35497,7 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>56.78286138031925</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094305</v>
@@ -35506,13 +35506,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>91.41636810697327</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
@@ -35664,7 +35664,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>605.157040442575</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
         <v>367.2547334404111</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>246.5287790227427</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35740,16 +35740,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671542</v>
       </c>
       <c r="L17" t="n">
         <v>625.777556066439</v>
@@ -35901,7 +35901,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>605.157040442575</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
         <v>367.2547334404111</v>
@@ -35968,22 +35968,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>588.1551210547248</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>779.60008413115</v>
       </c>
       <c r="N20" t="n">
-        <v>796.0449487554608</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
         <v>689.7596327870084</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>151.6307503934899</v>
+        <v>325.3560717027</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094305</v>
@@ -36217,10 +36217,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>325.3560717027</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094305</v>
@@ -36454,13 +36454,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.441847033522043</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380625</v>
@@ -36606,7 +36606,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>796.0449487554608</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
         <v>689.7596327870084</v>
@@ -36676,7 +36676,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
         <v>495.6892250946982</v>
@@ -36688,13 +36688,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O27" t="n">
-        <v>380.7152528402543</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380625</v>
@@ -36855,7 +36855,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>281.1622857493969</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>325.3560717027</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094305</v>
@@ -36928,7 +36928,7 @@
         <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L32" t="n">
         <v>625.777556066439</v>
@@ -37092,7 +37092,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.07585359546421</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
         <v>333.8472147104634</v>
@@ -37156,16 +37156,16 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>325.3560717027</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380625</v>
@@ -37323,7 +37323,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
         <v>367.2547334404111</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37393,7 +37393,7 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>325.3560717027</v>
       </c>
       <c r="N36" t="n">
         <v>628.3797610094305</v>
@@ -37402,10 +37402,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>91.41636810697327</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380625</v>
@@ -37563,7 +37563,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
         <v>127.3573607845841</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
@@ -37630,22 +37630,22 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>184.3120775415272</v>
+        <v>325.3560717027</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K41" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
         <v>728.287436302058</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>92.4658959600265</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094305</v>
@@ -37876,10 +37876,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>60.15542093169881</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K44" t="n">
         <v>474.3741250380625</v>
@@ -38028,7 +38028,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>796.0449487554608</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
         <v>689.7596327870084</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>319.0049326509587</v>
+        <v>492.8789887825846</v>
       </c>
       <c r="O45" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
         <v>35.6830345797074</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958999.650195583</v>
+        <v>2960818.921886622</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717228</v>
+        <v>430763.782371723</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D2" t="n">
-        <v>263.2420339516669</v>
+        <v>95.65240303338288</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>109.0498329482418</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852073</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.3559228367316</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>75.50866132816823</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.41402108404402</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="D5" t="n">
-        <v>68.49865928347451</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="E5" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="F5" t="n">
-        <v>263.2420339516669</v>
+        <v>212.5562620479445</v>
       </c>
       <c r="G5" t="n">
         <v>15.21022140383137</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852073</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>28.55397204146352</v>
       </c>
       <c r="C6" t="n">
-        <v>125.6384340685022</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>14.41402108404402</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>399.0721465063743</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>102.9227117895461</v>
+        <v>14.736584465029</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>94.14428943313048</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.0405985760713</v>
       </c>
       <c r="H9" t="n">
-        <v>8.43610621258809</v>
+        <v>109.3098884080723</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>78.96719903982114</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>22.54477810558841</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.7602659518306</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.1751068685197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1426,7 +1426,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>33.27645353568729</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>81.3725990111929</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1663,7 +1663,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.8427084490571</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>67.89710800491262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>156.7148338285351</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2058,7 +2058,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>210.177480908705</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>64.44601915223832</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-1.027018470267649e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>64.44601915223838</v>
+        <v>5.313812950988587</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>83.07736723265384</v>
       </c>
       <c r="D28" t="n">
-        <v>86.27179222793497</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>64.44601915223838</v>
       </c>
       <c r="E31" t="n">
-        <v>84.56702400647403</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>83.07736723265384</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>84.56702400647403</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>12.9985540270648</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>7.729505493042338</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>64.44601915223838</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.28063672639034</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.9725644689323</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>116.2771247230828</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -4033,7 +4033,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1854515484204</v>
+        <v>222.1370025366822</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.9534977375317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>682.515142825486</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="C2" t="n">
-        <v>416.6140984298628</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="D2" t="n">
-        <v>150.7130540342397</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="E2" t="n">
-        <v>150.7130540342397</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="F2" t="n">
-        <v>40.56170762187421</v>
+        <v>249.5608613485116</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800413</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800413</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573684</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>907.4554057415462</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T2" t="n">
-        <v>682.515142825486</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="U2" t="n">
-        <v>682.515142825486</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="V2" t="n">
-        <v>682.515142825486</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="W2" t="n">
-        <v>682.515142825486</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="X2" t="n">
-        <v>682.515142825486</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="Y2" t="n">
-        <v>682.515142825486</v>
+        <v>619.0259954159469</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613335</v>
+        <v>361.204544883074</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613335</v>
+        <v>361.204544883074</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613335</v>
+        <v>361.204544883074</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613335</v>
+        <v>361.204544883074</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683216</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683216</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516947</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M3" t="n">
-        <v>526.1633218638449</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N3" t="n">
-        <v>786.7729354759952</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O3" t="n">
-        <v>1047.185999568487</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P3" t="n">
-        <v>1047.185999568487</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806668</v>
+        <v>976.6967607277086</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806668</v>
+        <v>804.2081533203495</v>
       </c>
       <c r="T3" t="n">
-        <v>850.9830782217434</v>
+        <v>804.2081533203495</v>
       </c>
       <c r="U3" t="n">
-        <v>850.9830782217434</v>
+        <v>804.2081533203495</v>
       </c>
       <c r="V3" t="n">
-        <v>615.8309699900008</v>
+        <v>569.0560450886069</v>
       </c>
       <c r="W3" t="n">
-        <v>361.5936132617991</v>
+        <v>569.0560450886069</v>
       </c>
       <c r="X3" t="n">
-        <v>153.7421130562663</v>
+        <v>361.204544883074</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.7421130562663</v>
+        <v>361.204544883074</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9493102140437</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>641.5543613459231</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="C5" t="n">
-        <v>641.5543613459231</v>
+        <v>787.0670914110437</v>
       </c>
       <c r="D5" t="n">
-        <v>572.3637964131206</v>
+        <v>521.1660470154209</v>
       </c>
       <c r="E5" t="n">
-        <v>306.4627520174973</v>
+        <v>255.265002619798</v>
       </c>
       <c r="F5" t="n">
-        <v>40.56170762187421</v>
+        <v>40.56170762187427</v>
       </c>
       <c r="G5" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573684</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098027</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369333</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885147</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="S5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="T5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="U5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="V5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="W5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="X5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Y5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806667</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.9668718762366</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>154.3302328992136</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L6" t="n">
-        <v>394.9337607940762</v>
+        <v>394.933760794076</v>
       </c>
       <c r="M6" t="n">
-        <v>524.9036321565288</v>
+        <v>394.933760794076</v>
       </c>
       <c r="N6" t="n">
-        <v>524.9036321565288</v>
+        <v>524.9036321565283</v>
       </c>
       <c r="O6" t="n">
-        <v>785.316696249021</v>
+        <v>785.3166962490203</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271197</v>
+        <v>977.3180709271189</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480428</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480428</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480428</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480428</v>
       </c>
       <c r="V6" t="n">
-        <v>817.8160275749249</v>
+        <v>719.7509144163</v>
       </c>
       <c r="W6" t="n">
-        <v>563.5786708467233</v>
+        <v>465.5135576880984</v>
       </c>
       <c r="X6" t="n">
-        <v>355.7271706411905</v>
+        <v>257.6620574825656</v>
       </c>
       <c r="Y6" t="n">
-        <v>147.9668718762366</v>
+        <v>49.90175871761164</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9493102140437</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>538.9912851507327</v>
+        <v>53.75671132327815</v>
       </c>
       <c r="C8" t="n">
-        <v>538.9912851507327</v>
+        <v>53.75671132327815</v>
       </c>
       <c r="D8" t="n">
-        <v>538.9912851507327</v>
+        <v>53.75671132327815</v>
       </c>
       <c r="E8" t="n">
-        <v>538.9912851507327</v>
+        <v>53.75671132327815</v>
       </c>
       <c r="F8" t="n">
-        <v>135.8881068614656</v>
+        <v>46.81121057407469</v>
       </c>
       <c r="G8" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="H8" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="J8" t="n">
-        <v>67.66699237151721</v>
+        <v>67.66699237151764</v>
       </c>
       <c r="K8" t="n">
-        <v>241.9786214193923</v>
+        <v>241.9786214193932</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5042384841147</v>
+        <v>510.5042384841162</v>
       </c>
       <c r="M8" t="n">
-        <v>825.8972722888577</v>
+        <v>825.8972722888599</v>
       </c>
       <c r="N8" t="n">
-        <v>1131.761697568014</v>
+        <v>1131.761697568017</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.393163234506</v>
+        <v>1375.39316323451</v>
       </c>
       <c r="P8" t="n">
-        <v>1545.652599660154</v>
+        <v>1545.652599660158</v>
       </c>
       <c r="Q8" t="n">
-        <v>1596.288586025497</v>
+        <v>1596.288586025502</v>
       </c>
       <c r="R8" t="n">
-        <v>1596.288586025497</v>
+        <v>1596.288586025502</v>
       </c>
       <c r="S8" t="n">
-        <v>1596.288586025497</v>
+        <v>1501.193344173855</v>
       </c>
       <c r="T8" t="n">
-        <v>1596.288586025497</v>
+        <v>1501.193344173855</v>
       </c>
       <c r="U8" t="n">
-        <v>1596.288586025497</v>
+        <v>1501.193344173855</v>
       </c>
       <c r="V8" t="n">
-        <v>1265.225698681927</v>
+        <v>1170.130456830284</v>
       </c>
       <c r="W8" t="n">
-        <v>912.4570434118125</v>
+        <v>817.3618015601699</v>
       </c>
       <c r="X8" t="n">
-        <v>538.9912851507327</v>
+        <v>443.8960432990899</v>
       </c>
       <c r="Y8" t="n">
-        <v>538.9912851507327</v>
+        <v>53.75671132327815</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>523.0719850749983</v>
+        <v>989.688946897989</v>
       </c>
       <c r="C9" t="n">
-        <v>348.6189557938714</v>
+        <v>815.235917616862</v>
       </c>
       <c r="D9" t="n">
-        <v>199.6845461326201</v>
+        <v>666.3015079556108</v>
       </c>
       <c r="E9" t="n">
-        <v>40.44709112716458</v>
+        <v>507.0640529501552</v>
       </c>
       <c r="F9" t="n">
-        <v>40.44709112716458</v>
+        <v>360.5294949770401</v>
       </c>
       <c r="G9" t="n">
-        <v>40.44709112716458</v>
+        <v>222.1046479305034</v>
       </c>
       <c r="H9" t="n">
-        <v>31.92577172050995</v>
+        <v>111.6906192354809</v>
       </c>
       <c r="I9" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="J9" t="n">
-        <v>31.92577172050995</v>
+        <v>59.51961820537331</v>
       </c>
       <c r="K9" t="n">
-        <v>205.7088935611546</v>
+        <v>233.3027400460183</v>
       </c>
       <c r="L9" t="n">
-        <v>500.786143331991</v>
+        <v>528.3799898168552</v>
       </c>
       <c r="M9" t="n">
-        <v>895.8675683733015</v>
+        <v>923.4614148581668</v>
       </c>
       <c r="N9" t="n">
-        <v>928.5994768785313</v>
+        <v>928.5994768785345</v>
       </c>
       <c r="O9" t="n">
-        <v>1248.704208289596</v>
+        <v>1248.7042082896</v>
       </c>
       <c r="P9" t="n">
-        <v>1488.6134085012</v>
+        <v>1488.613408501204</v>
       </c>
       <c r="Q9" t="n">
-        <v>1596.288586025497</v>
+        <v>1596.288586025502</v>
       </c>
       <c r="R9" t="n">
-        <v>1596.288586025497</v>
+        <v>1596.288586025502</v>
       </c>
       <c r="S9" t="n">
-        <v>1596.288586025497</v>
+        <v>1573.516082888544</v>
       </c>
       <c r="T9" t="n">
-        <v>1596.288586025497</v>
+        <v>1573.516082888544</v>
       </c>
       <c r="U9" t="n">
-        <v>1596.288586025497</v>
+        <v>1573.516082888544</v>
       </c>
       <c r="V9" t="n">
-        <v>1361.136477793755</v>
+        <v>1573.516082888544</v>
       </c>
       <c r="W9" t="n">
-        <v>1106.899121065553</v>
+        <v>1573.516082888544</v>
       </c>
       <c r="X9" t="n">
-        <v>899.0476208600203</v>
+        <v>1365.664582683011</v>
       </c>
       <c r="Y9" t="n">
-        <v>691.2873220950664</v>
+        <v>1157.904283918057</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.92577172050995</v>
+        <v>200.8619546484169</v>
       </c>
       <c r="C10" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="D10" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="E10" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="F10" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="G10" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="H10" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="I10" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="J10" t="n">
-        <v>31.92577172050995</v>
+        <v>31.92577172051003</v>
       </c>
       <c r="K10" t="n">
-        <v>39.08908224095541</v>
+        <v>39.0890822409557</v>
       </c>
       <c r="L10" t="n">
-        <v>103.782088068594</v>
+        <v>103.7820880685945</v>
       </c>
       <c r="M10" t="n">
-        <v>182.3809151796113</v>
+        <v>182.3809151796121</v>
       </c>
       <c r="N10" t="n">
-        <v>264.5454542807984</v>
+        <v>264.5454542807994</v>
       </c>
       <c r="O10" t="n">
-        <v>324.4214093422723</v>
+        <v>324.4214093422736</v>
       </c>
       <c r="P10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="Q10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="R10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="S10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="T10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="U10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="V10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="W10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="X10" t="n">
-        <v>352.1349505593554</v>
+        <v>352.1349505593569</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5742365507496</v>
+        <v>352.1349505593569</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5029,46 +5029,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1437450015209</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287892027</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
@@ -5077,7 +5077,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
         <v>3468.466124132384</v>
@@ -5086,7 +5086,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
         <v>572.0050724668117</v>
@@ -5129,19 +5129,19 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1118.952438077079</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N12" t="n">
-        <v>1741.048401476415</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O12" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P12" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0957149476001</v>
+        <v>932.2078141341359</v>
       </c>
       <c r="C13" t="n">
-        <v>326.1595320196932</v>
+        <v>763.271631206229</v>
       </c>
       <c r="D13" t="n">
-        <v>176.0428926073575</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="E13" t="n">
-        <v>176.0428926073575</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F13" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
         <v>172.8304710411609</v>
@@ -5232,19 +5232,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1704.019693541621</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819387</v>
+        <v>1414.60252350466</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213699</v>
+        <v>1186.612972606643</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778398</v>
+        <v>965.820393463113</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890959</v>
@@ -5266,46 +5266,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015209</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892027</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294977</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5314,16 +5314,16 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5351,13 +5351,13 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
         <v>572.0050724668117</v>
@@ -5369,7 +5369,7 @@
         <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>2276.851722962027</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
         <v>2553.812354695766</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>654.5023284669179</v>
+        <v>1035.201463935442</v>
       </c>
       <c r="C16" t="n">
-        <v>485.566145539011</v>
+        <v>866.2652810075349</v>
       </c>
       <c r="D16" t="n">
-        <v>485.566145539011</v>
+        <v>716.1486415951991</v>
       </c>
       <c r="E16" t="n">
-        <v>485.566145539011</v>
+        <v>568.235548012806</v>
       </c>
       <c r="F16" t="n">
         <v>485.566145539011</v>
@@ -5433,7 +5433,7 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
         <v>172.8304710411609</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1955.049228844189</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1665.632058807229</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.943372440688</v>
+        <v>1437.642507909211</v>
       </c>
       <c r="Y16" t="n">
-        <v>836.1507932971576</v>
+        <v>1216.849928765681</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892027</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
         <v>4606.950144347201</v>
@@ -5548,13 +5548,13 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
         <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
         <v>3095.000365871304</v>
@@ -5588,13 +5588,13 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
         <v>572.0050724668117</v>
@@ -5606,7 +5606,7 @@
         <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.851722962027</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
         <v>2553.812354695766</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.9550599890988</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C19" t="n">
-        <v>394.0188770611919</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D19" t="n">
-        <v>394.0188770611919</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E19" t="n">
-        <v>394.0188770611919</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F19" t="n">
-        <v>394.0188770611919</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
         <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
         <v>172.8304710411609</v>
@@ -5697,28 +5697,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103734</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897847</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860886</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3961039628687</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.6035248193385</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="20">
@@ -5740,58 +5740,58 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
         <v>3821.234779402498</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
         <v>3095.000365871304</v>
@@ -5825,13 +5825,13 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
         <v>572.0050724668117</v>
@@ -5840,10 +5840,10 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N21" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O21" t="n">
         <v>2553.812354695766</v>
@@ -5892,22 +5892,22 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
         <v>172.8304710411609</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160599</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
@@ -6025,16 +6025,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M24" t="n">
-        <v>1384.839916296236</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N24" t="n">
-        <v>2006.935879695572</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0625429770282</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0625429770282</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
         <v>93.84834815160703</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6226,22 +6226,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P26" t="n">
         <v>4202.751434297606</v>
@@ -6320,7 +6320,7 @@
         <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6363,13 +6363,13 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>495.0957149476001</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9524904749385</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9524904749385</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F28" t="n">
         <v>261.0625429770282</v>
@@ -6442,22 +6442,22 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963559</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
@@ -6551,16 +6551,16 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695572</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6603,13 +6603,13 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
         <v>93.84834815160703</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D32" t="n">
         <v>1591.032978284208</v>
@@ -6688,10 +6688,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
         <v>93.84834815160703</v>
@@ -6703,22 +6703,22 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q32" t="n">
         <v>4566.333620403613</v>
@@ -6727,7 +6727,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6788,16 +6788,16 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N33" t="n">
-        <v>2006.935879695572</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6837,16 +6837,16 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>326.1595320196932</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D34" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F34" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
         <v>93.84834815160703</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6925,10 +6925,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6964,25 +6964,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.935879695572</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>562.9550599890988</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>562.9550599890988</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E37" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7119,28 +7119,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890958</v>
@@ -7162,13 +7162,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
@@ -7210,16 +7210,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1384.839916296236</v>
+        <v>1281.571598885108</v>
       </c>
       <c r="N39" t="n">
-        <v>2006.935879695572</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>723.0852658456174</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>554.1490829177105</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>554.1490829177105</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E40" t="n">
-        <v>554.1490829177105</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
-        <v>407.2591354198001</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>240.044940594379</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>98.17222363280939</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7374,10 +7374,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>1125.526309819387</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>904.7337306758571</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7447,16 +7447,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.6035248193385</v>
+        <v>560.8142640742427</v>
       </c>
       <c r="C43" t="n">
-        <v>744.6035248193385</v>
+        <v>391.8780811463358</v>
       </c>
       <c r="D43" t="n">
-        <v>594.4868854070028</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E43" t="n">
-        <v>446.5737918246097</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F43" t="n">
-        <v>299.6838443266993</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G43" t="n">
-        <v>299.6838443266993</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2244.101513159769</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>2024.422730874151</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1735.346517188878</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1480.662028982991</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1191.24485894603</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628687</v>
+        <v>963.2553080480126</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193385</v>
+        <v>742.4627289044824</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
         <v>1949.298676890959</v>
@@ -7636,46 +7636,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>424.1437450015209</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892027</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294977</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
@@ -7684,7 +7684,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W44" t="n">
         <v>3468.466124132384</v>
@@ -7693,7 +7693,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>241.496329903453</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>241.496329903453</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M45" t="n">
-        <v>833.5146841555805</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N45" t="n">
-        <v>1321.464883050339</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O45" t="n">
-        <v>1868.341358050533</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P45" t="n">
-        <v>2287.924876476609</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="Q45" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
         <v>2553.812354695766</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.791123359144</v>
+        <v>559.79111798976</v>
       </c>
       <c r="C46" t="n">
-        <v>847.8549404312371</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D46" t="n">
-        <v>697.7383010189013</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E46" t="n">
-        <v>549.8252074365082</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
         <v>172.8304710411609</v>
@@ -7839,19 +7839,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062235</v>
+        <v>1734.323371104395</v>
       </c>
       <c r="V46" t="n">
-        <v>1669.627968062235</v>
+        <v>1479.638882898508</v>
       </c>
       <c r="W46" t="n">
-        <v>1380.210798025274</v>
+        <v>1190.221712861547</v>
       </c>
       <c r="X46" t="n">
-        <v>1380.210798025274</v>
+        <v>962.2321619635298</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.439588189384</v>
+        <v>741.4395828199997</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236087</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093849</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808121</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>209.6921972573155</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.5036224415385</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114201</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>260.8744387036297</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N6" t="n">
-        <v>118.4674613291452</v>
+        <v>249.7501596750568</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>98.21846313347643</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>464.4535191168286</v>
+        <v>464.4535191168292</v>
       </c>
       <c r="N9" t="n">
-        <v>85.62017005519017</v>
+        <v>57.74759784825827</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909182</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>51.31264782909176</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>51.31264782909193</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.31264782909182</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>146.55552664625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>64.04844901173834</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>63.57833957387415</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>157.8125473841245</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>8.827219048631832</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>76.00797063971547</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>84.16945386597403</v>
+        <v>59.08139078076096</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440903</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>84.16945386597398</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>84.16945386597399</v>
       </c>
       <c r="D28" t="n">
-        <v>62.34368079027739</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>84.16945386597398</v>
       </c>
       <c r="E31" t="n">
-        <v>61.86693864009514</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>84.16945386597399</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.86693864009514</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.4539897919539</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>133.4354086195044</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>157.8125473841246</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>81.98794349433079</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>77.52394001801869</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>18.48142532302165</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.06136363537617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
         <v>81.80457674440903</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>64.0484490117382</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>38.63115561456306</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>822744.5699608844</v>
+        <v>822744.5699608843</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486257</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733135.2407486255</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733135.2407486255</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733135.2407486257</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
         <v>685680.5305507757</v>
       </c>
       <c r="F2" t="n">
-        <v>685680.5305507758</v>
+        <v>685680.5305507756</v>
       </c>
       <c r="G2" t="n">
-        <v>685680.5305507758</v>
+        <v>685680.5305507757</v>
       </c>
       <c r="H2" t="n">
-        <v>685680.5305507758</v>
+        <v>685680.5305507757</v>
       </c>
       <c r="I2" t="n">
         <v>685680.5305507756</v>
@@ -26346,16 +26346,16 @@
         <v>685680.5305507756</v>
       </c>
       <c r="M2" t="n">
-        <v>685680.5305507755</v>
+        <v>685680.5305507758</v>
       </c>
       <c r="N2" t="n">
-        <v>685680.5305507755</v>
+        <v>685680.5305507756</v>
       </c>
       <c r="O2" t="n">
+        <v>685680.5305507757</v>
+      </c>
+      <c r="P2" t="n">
         <v>685680.5305507756</v>
-      </c>
-      <c r="P2" t="n">
-        <v>685680.5305507758</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749498</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143093.1975581075</v>
+        <v>143093.1975581089</v>
       </c>
       <c r="E3" t="n">
-        <v>1209019.537077498</v>
+        <v>1209019.537077497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124991</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34377.37901658347</v>
+        <v>34377.3790165838</v>
       </c>
       <c r="M3" t="n">
-        <v>192891.921711689</v>
+        <v>192891.9217116887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354753.502998367</v>
+        <v>354753.5029983671</v>
       </c>
       <c r="C4" t="n">
         <v>354753.502998367</v>
       </c>
       <c r="D4" t="n">
-        <v>312563.8135151857</v>
+        <v>312563.8135151853</v>
       </c>
       <c r="E4" t="n">
-        <v>7918.140297431728</v>
+        <v>7918.140297431717</v>
       </c>
       <c r="F4" t="n">
-        <v>7918.140297431729</v>
+        <v>7918.140297431763</v>
       </c>
       <c r="G4" t="n">
-        <v>7918.140297431728</v>
+        <v>7918.140297431712</v>
       </c>
       <c r="H4" t="n">
-        <v>7918.140297431732</v>
+        <v>7918.140297431711</v>
       </c>
       <c r="I4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431757</v>
       </c>
       <c r="J4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431717</v>
       </c>
       <c r="K4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431712</v>
       </c>
       <c r="L4" t="n">
+        <v>7918.140297431709</v>
+      </c>
+      <c r="M4" t="n">
         <v>7918.140297431712</v>
       </c>
-      <c r="M4" t="n">
-        <v>7918.140297431711</v>
-      </c>
       <c r="N4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.14029743171</v>
       </c>
       <c r="O4" t="n">
         <v>7918.140297431711</v>
       </c>
       <c r="P4" t="n">
-        <v>7918.140297431729</v>
+        <v>7918.14029743171</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>60961.29296005012</v>
+        <v>60961.29296005021</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
@@ -26511,7 +26511,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182603.1391044908</v>
+        <v>182603.1391044909</v>
       </c>
       <c r="C6" t="n">
-        <v>292997.5939794404</v>
+        <v>292997.5939794403</v>
       </c>
       <c r="D6" t="n">
-        <v>181267.2003512975</v>
+        <v>181267.2003512961</v>
       </c>
       <c r="E6" t="n">
-        <v>-632546.1561000353</v>
+        <v>-632223.0832632554</v>
       </c>
       <c r="F6" t="n">
-        <v>576473.3809774625</v>
+        <v>576796.453814241</v>
       </c>
       <c r="G6" t="n">
-        <v>576473.3809774625</v>
+        <v>576796.4538142411</v>
       </c>
       <c r="H6" t="n">
-        <v>576473.3809774625</v>
+        <v>576796.4538142411</v>
       </c>
       <c r="I6" t="n">
-        <v>576473.3809774623</v>
+        <v>576796.453814241</v>
       </c>
       <c r="J6" t="n">
-        <v>507597.6822462123</v>
+        <v>507920.7550829911</v>
       </c>
       <c r="K6" t="n">
-        <v>576473.3809774623</v>
+        <v>576796.453814241</v>
       </c>
       <c r="L6" t="n">
-        <v>542096.0019608788</v>
+        <v>542419.0747976572</v>
       </c>
       <c r="M6" t="n">
-        <v>383581.4592657731</v>
+        <v>383904.5321025525</v>
       </c>
       <c r="N6" t="n">
-        <v>576473.3809774622</v>
+        <v>576796.453814241</v>
       </c>
       <c r="O6" t="n">
-        <v>576473.3809774623</v>
+        <v>576796.4538142411</v>
       </c>
       <c r="P6" t="n">
-        <v>576473.3809774625</v>
+        <v>576796.453814241</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>140.830571213879</v>
+        <v>140.8305712138799</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="D4" t="n">
-        <v>399.0721465063743</v>
+        <v>399.0721465063754</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8171885270894</v>
+        <v>117.8171885270905</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.210477502507</v>
+        <v>1217.210477502506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8301125547075</v>
+        <v>135.8301125547088</v>
       </c>
       <c r="E4" t="n">
-        <v>774.0322053887137</v>
+        <v>774.0322053887123</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547075</v>
+        <v>135.8301125547088</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887137</v>
+        <v>774.0322053887123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547075</v>
+        <v>135.8301125547088</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887137</v>
+        <v>774.0322053887123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>102.0308578193407</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D2" t="n">
-        <v>91.44100766901607</v>
+        <v>259.0306385873001</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>297.8262127934696</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.17726081313575</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>21.57580069886933</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>132.0199415625252</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27557,13 +27557,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27596,7 +27596,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>92.30257421685306</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>102.0308578193409</v>
       </c>
       <c r="D5" t="n">
-        <v>286.1843823372084</v>
+        <v>91.4410076690163</v>
       </c>
       <c r="E5" t="n">
-        <v>118.6883361205949</v>
+        <v>118.6883361205951</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6340117900446</v>
+        <v>194.319783693767</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>137.9792116084038</v>
       </c>
       <c r="C6" t="n">
-        <v>47.07006491981357</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27715,7 +27715,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>7.411751991652892</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>132.0199415625252</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9494798159088</v>
@@ -27794,13 +27794,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
         <v>175.4274210366964</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>7.803899235337099</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>311.8138726754829</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>333.6766871913686</v>
       </c>
       <c r="I8" t="n">
-        <v>188.6492741061926</v>
+        <v>188.6492741061924</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>114.3055064074258</v>
+        <v>114.3055064074255</v>
       </c>
       <c r="S8" t="n">
-        <v>196.1188569569538</v>
+        <v>101.9745675238232</v>
       </c>
       <c r="T8" t="n">
         <v>220.6175145872921</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0405985760713</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8737821954842</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>78.96719903982121</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.35030994411792</v>
+        <v>81.35030994411781</v>
       </c>
       <c r="S9" t="n">
-        <v>166.056591206755</v>
+        <v>143.5118131011666</v>
       </c>
       <c r="T9" t="n">
         <v>198.9437542142032</v>
@@ -27991,10 +27991,10 @@
         <v>225.9214532265578</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.07171423010672</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>159.96926597224</v>
       </c>
       <c r="I10" t="n">
-        <v>147.8133023112663</v>
+        <v>147.8133023112662</v>
       </c>
       <c r="J10" t="n">
-        <v>75.40443663584759</v>
+        <v>75.40443663584746</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.89662699839866</v>
+        <v>64.89662699839852</v>
       </c>
       <c r="R10" t="n">
         <v>165.8745716194015</v>
       </c>
       <c r="S10" t="n">
-        <v>219.5908241842345</v>
+        <v>219.5908241842344</v>
       </c>
       <c r="T10" t="n">
         <v>226.860501420568</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.40954648357507</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.027018470267649e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471433</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N4" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471433</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5661530501060458</v>
+        <v>0.5661530501060495</v>
       </c>
       <c r="H8" t="n">
-        <v>5.798114924398543</v>
+        <v>5.798114924398581</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82661546421335</v>
+        <v>21.8266154642135</v>
       </c>
       <c r="J8" t="n">
-        <v>48.05153243643804</v>
+        <v>48.05153243643836</v>
       </c>
       <c r="K8" t="n">
-        <v>72.01679104742698</v>
+        <v>72.01679104742745</v>
       </c>
       <c r="L8" t="n">
-        <v>89.34319745460989</v>
+        <v>89.34319745461049</v>
       </c>
       <c r="M8" t="n">
-        <v>99.41152175943327</v>
+        <v>99.41152175943394</v>
       </c>
       <c r="N8" t="n">
-        <v>101.0201041130471</v>
+        <v>101.0201041130478</v>
       </c>
       <c r="O8" t="n">
-        <v>95.39041972105508</v>
+        <v>95.39041972105572</v>
       </c>
       <c r="P8" t="n">
-        <v>81.41351629656207</v>
+        <v>81.41351629656262</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.13816018963929</v>
+        <v>61.1381601896397</v>
       </c>
       <c r="R8" t="n">
-        <v>35.56361153372393</v>
+        <v>35.56361153372416</v>
       </c>
       <c r="S8" t="n">
-        <v>12.90121262929153</v>
+        <v>12.90121262929162</v>
       </c>
       <c r="T8" t="n">
-        <v>2.478334976839216</v>
+        <v>2.478334976839233</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04529224400848365</v>
+        <v>0.04529224400848395</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029185871392869</v>
+        <v>0.3029185871392889</v>
       </c>
       <c r="H9" t="n">
-        <v>2.925555828424166</v>
+        <v>2.925555828424185</v>
       </c>
       <c r="I9" t="n">
-        <v>10.42943381159387</v>
+        <v>10.42943381159394</v>
       </c>
       <c r="J9" t="n">
-        <v>28.61916353319026</v>
+        <v>28.61916353319045</v>
       </c>
       <c r="K9" t="n">
-        <v>48.91470887152248</v>
+        <v>48.91470887152281</v>
       </c>
       <c r="L9" t="n">
-        <v>65.77186252776491</v>
+        <v>65.77186252776534</v>
       </c>
       <c r="M9" t="n">
-        <v>76.75266131156404</v>
+        <v>76.75266131156455</v>
       </c>
       <c r="N9" t="n">
-        <v>78.78407587180953</v>
+        <v>78.78407587181006</v>
       </c>
       <c r="O9" t="n">
-        <v>72.07203770414428</v>
+        <v>72.07203770414476</v>
       </c>
       <c r="P9" t="n">
-        <v>57.84416424065909</v>
+        <v>57.84416424065948</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.66729193027108</v>
+        <v>38.66729193027134</v>
       </c>
       <c r="R9" t="n">
-        <v>18.80752420852521</v>
+        <v>18.80752420852533</v>
       </c>
       <c r="S9" t="n">
-        <v>5.626579897082803</v>
+        <v>5.62657989708284</v>
       </c>
       <c r="T9" t="n">
-        <v>1.220974480618441</v>
+        <v>1.220974480618449</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01992885441705836</v>
+        <v>0.01992885441705849</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2539567677627326</v>
+        <v>0.2539567677627342</v>
       </c>
       <c r="H10" t="n">
-        <v>2.257906535199569</v>
+        <v>2.257906535199584</v>
       </c>
       <c r="I10" t="n">
-        <v>7.637172615991997</v>
+        <v>7.637172615992047</v>
       </c>
       <c r="J10" t="n">
-        <v>17.95474348082519</v>
+        <v>17.95474348082531</v>
       </c>
       <c r="K10" t="n">
-        <v>29.50515901825201</v>
+        <v>29.50515901825221</v>
       </c>
       <c r="L10" t="n">
-        <v>37.75644527265208</v>
+        <v>37.75644527265234</v>
       </c>
       <c r="M10" t="n">
-        <v>39.8088776957527</v>
+        <v>39.80887769575297</v>
       </c>
       <c r="N10" t="n">
-        <v>38.86231156136436</v>
+        <v>38.86231156136463</v>
       </c>
       <c r="O10" t="n">
-        <v>35.89563477431788</v>
+        <v>35.89563477431813</v>
       </c>
       <c r="P10" t="n">
-        <v>30.71491671195811</v>
+        <v>30.71491671195832</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.26541625329573</v>
+        <v>21.26541625329587</v>
       </c>
       <c r="R10" t="n">
-        <v>11.41881975776795</v>
+        <v>11.41881975776803</v>
       </c>
       <c r="S10" t="n">
-        <v>4.425773852737802</v>
+        <v>4.425773852737831</v>
       </c>
       <c r="T10" t="n">
-        <v>1.085088007713493</v>
+        <v>1.085088007713501</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0138521873325127</v>
+        <v>0.01385218733251279</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>198.9168953023376</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>189.4642825742353</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32089,10 +32089,10 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32326,10 +32326,10 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32560,13 +32560,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>467.4901056247184</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,25 +32791,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>467.4901056247184</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>514.6896602545845</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33040,10 +33040,10 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O27" t="n">
-        <v>422.3544583169088</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>413.7326212867947</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33271,19 +33271,19 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>467.4901056247184</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33508,19 +33508,19 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>467.4901056247184</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33745,19 +33745,19 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>467.4901056247184</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33982,19 +33982,19 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>467.4901056247184</v>
+        <v>363.1786738963057</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34450,7 +34450,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34459,19 +34459,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>624.2207008659179</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286952</v>
+        <v>363.028733255008</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.2575834086216</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833254</v>
+        <v>78.87337706391128</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.840541654727605</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>134.6170405889699</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>131.2826983459118</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.2826983459114</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833254</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>193.94078250313</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903819</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.10224308182553</v>
+        <v>36.10224308182585</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0723525736112</v>
+        <v>176.0723525736116</v>
       </c>
       <c r="L8" t="n">
-        <v>271.2379970350731</v>
+        <v>271.2379970350737</v>
       </c>
       <c r="M8" t="n">
-        <v>318.578822024993</v>
+        <v>318.5788220249937</v>
       </c>
       <c r="N8" t="n">
-        <v>308.9539649284403</v>
+        <v>308.953964928441</v>
       </c>
       <c r="O8" t="n">
-        <v>246.0923895621137</v>
+        <v>246.0923895621144</v>
       </c>
       <c r="P8" t="n">
-        <v>171.9792287127752</v>
+        <v>171.9792287127757</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14746097509448</v>
+        <v>51.14746097509489</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>27.8725722069326</v>
       </c>
       <c r="K9" t="n">
-        <v>175.5385069097421</v>
+        <v>175.5385069097424</v>
       </c>
       <c r="L9" t="n">
-        <v>298.0578280513499</v>
+        <v>298.0578280513503</v>
       </c>
       <c r="M9" t="n">
-        <v>399.0721465063743</v>
+        <v>399.0721465063754</v>
       </c>
       <c r="N9" t="n">
-        <v>33.0625338436664</v>
+        <v>5.189961636735021</v>
       </c>
       <c r="O9" t="n">
-        <v>323.3381125364294</v>
+        <v>323.3381125364298</v>
       </c>
       <c r="P9" t="n">
-        <v>242.332525466266</v>
+        <v>242.3325254662664</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.7628055800987</v>
+        <v>108.7628055800989</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.23566719236916</v>
+        <v>7.235667192369359</v>
       </c>
       <c r="L10" t="n">
-        <v>65.34647053296823</v>
+        <v>65.34647053296848</v>
       </c>
       <c r="M10" t="n">
-        <v>79.39275465759329</v>
+        <v>79.39275465759356</v>
       </c>
       <c r="N10" t="n">
-        <v>82.99448394059296</v>
+        <v>82.99448394059323</v>
       </c>
       <c r="O10" t="n">
-        <v>60.48076268835756</v>
+        <v>60.4807626883578</v>
       </c>
       <c r="P10" t="n">
-        <v>27.9934759768516</v>
+        <v>27.99347597685181</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6317139898119</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380625</v>
@@ -35427,7 +35427,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q11" t="n">
         <v>367.2547334404111</v>
@@ -35497,13 +35497,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>56.78286138031925</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898119</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
@@ -35737,10 +35737,10 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7582138724644</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>525.6867728671542</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
         <v>625.777556066439</v>
@@ -35895,7 +35895,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O17" t="n">
         <v>689.7596327870084</v>
@@ -35974,10 +35974,10 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7582138724644</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K20" t="n">
         <v>474.3741250380625</v>
@@ -36129,7 +36129,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>779.60008413115</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
         <v>744.7323009263698</v>
@@ -36208,13 +36208,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>325.3560717027</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>325.3560717027</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>380.7152528402543</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380625</v>
@@ -36612,7 +36612,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q26" t="n">
         <v>367.2547334404111</v>
@@ -36688,10 +36688,10 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>279.7582138724644</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>325.3560717027</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
         <v>625.777556066439</v>
@@ -37089,7 +37089,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R32" t="n">
         <v>127.3573607845841</v>
@@ -37156,19 +37156,19 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>325.3560717027</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>325.3560717027</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>325.3560717027</v>
+        <v>221.0446399742874</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6317139898119</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K44" t="n">
         <v>474.3741250380625</v>
@@ -38098,7 +38098,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>492.8789887825846</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="R45" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
